--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H2">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>101.6367609760178</v>
+        <v>61.57074758301069</v>
       </c>
       <c r="R2">
-        <v>914.7308487841601</v>
+        <v>554.1367282470961</v>
       </c>
       <c r="S2">
-        <v>0.01073702135353683</v>
+        <v>0.006983827545724684</v>
       </c>
       <c r="T2">
-        <v>0.01073702135353683</v>
+        <v>0.006983827545724682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H3">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>138.9848974208661</v>
+        <v>98.44265613898069</v>
       </c>
       <c r="R3">
-        <v>1250.864076787795</v>
+        <v>885.9839052508263</v>
       </c>
       <c r="S3">
-        <v>0.01468252035087074</v>
+        <v>0.0111661228847483</v>
       </c>
       <c r="T3">
-        <v>0.01468252035087074</v>
+        <v>0.0111661228847483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H4">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>2316.743199545178</v>
+        <v>1815.408133175398</v>
       </c>
       <c r="R4">
-        <v>20850.6887959066</v>
+        <v>16338.67319857858</v>
       </c>
       <c r="S4">
-        <v>0.244743348423385</v>
+        <v>0.205917547291587</v>
       </c>
       <c r="T4">
-        <v>0.244743348423385</v>
+        <v>0.205917547291587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H5">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>2.680437885277778</v>
+        <v>1.353055376390667</v>
       </c>
       <c r="R5">
-        <v>24.1239409675</v>
+        <v>12.177498387516</v>
       </c>
       <c r="S5">
-        <v>0.0002831644626873492</v>
+        <v>0.0001534739430569369</v>
       </c>
       <c r="T5">
-        <v>0.0002831644626873492</v>
+        <v>0.0001534739430569369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>96.65942158444089</v>
+        <v>82.67079047252622</v>
       </c>
       <c r="R6">
-        <v>869.934794259968</v>
+        <v>744.0371142527359</v>
       </c>
       <c r="S6">
-        <v>0.01021120964114105</v>
+        <v>0.009377156627024192</v>
       </c>
       <c r="T6">
-        <v>0.01021120964114105</v>
+        <v>0.009377156627024191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>132.1785509953795</v>
+        <v>132.1785509953796</v>
       </c>
       <c r="R7">
         <v>1189.606958958416</v>
       </c>
       <c r="S7">
-        <v>0.01396349028528982</v>
+        <v>0.0149927074403466</v>
       </c>
       <c r="T7">
-        <v>0.01396349028528982</v>
+        <v>0.0149927074403466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>2203.288017812409</v>
+        <v>2437.541061159301</v>
       </c>
       <c r="R8">
-        <v>19829.59216031168</v>
+        <v>21937.86955043371</v>
       </c>
       <c r="S8">
-        <v>0.2327578158539087</v>
+        <v>0.2764846469308842</v>
       </c>
       <c r="T8">
-        <v>0.2327578158539087</v>
+        <v>0.2764846469308842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>2.549171904888889</v>
+        <v>1.816741909272889</v>
       </c>
       <c r="R9">
-        <v>22.942547144</v>
+        <v>16.350677183456</v>
       </c>
       <c r="S9">
-        <v>0.0002692973773838239</v>
+        <v>0.0002060688344306124</v>
       </c>
       <c r="T9">
-        <v>0.0002692973773838239</v>
+        <v>0.0002060688344306123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H10">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>69.50807953241245</v>
+        <v>61.98819312583245</v>
       </c>
       <c r="R10">
-        <v>625.5727157917121</v>
+        <v>557.893738132492</v>
       </c>
       <c r="S10">
-        <v>0.007342911432989766</v>
+        <v>0.007031177428505757</v>
       </c>
       <c r="T10">
-        <v>0.007342911432989766</v>
+        <v>0.007031177428505756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H11">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>95.04999186281877</v>
+        <v>99.11009075106412</v>
       </c>
       <c r="R11">
-        <v>855.4499267653689</v>
+        <v>891.9908167595771</v>
       </c>
       <c r="S11">
-        <v>0.01004118768134885</v>
+        <v>0.01124182844967674</v>
       </c>
       <c r="T11">
-        <v>0.01004118768134885</v>
+        <v>0.01124182844967674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H12">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>1584.391011911124</v>
+        <v>1827.716478669738</v>
       </c>
       <c r="R12">
-        <v>14259.51910720012</v>
+        <v>16449.44830802764</v>
       </c>
       <c r="S12">
-        <v>0.1673768424325884</v>
+        <v>0.2073136544639057</v>
       </c>
       <c r="T12">
-        <v>0.1673768424325884</v>
+        <v>0.2073136544639057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H13">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>1.833117150944445</v>
+        <v>1.362229001175778</v>
       </c>
       <c r="R13">
-        <v>16.4980543585</v>
+        <v>12.260061010582</v>
       </c>
       <c r="S13">
-        <v>0.0001936525505556924</v>
+        <v>0.0001545144861067354</v>
       </c>
       <c r="T13">
-        <v>0.0001936525505556924</v>
+        <v>0.0001545144861067354</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H14">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>108.0073249163022</v>
+        <v>68.36879154276312</v>
       </c>
       <c r="R14">
-        <v>972.06592424672</v>
+        <v>615.319123884868</v>
       </c>
       <c r="S14">
-        <v>0.01141001486891505</v>
+        <v>0.007754913954886079</v>
       </c>
       <c r="T14">
-        <v>0.01141001486891505</v>
+        <v>0.007754913954886077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H15">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>147.6964321770989</v>
+        <v>109.3117381335648</v>
       </c>
       <c r="R15">
-        <v>1329.26788959389</v>
+        <v>983.805643202083</v>
       </c>
       <c r="S15">
-        <v>0.01560281664722576</v>
+        <v>0.01239897772589143</v>
       </c>
       <c r="T15">
-        <v>0.01560281664722576</v>
+        <v>0.01239897772589143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H16">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>2461.956019633022</v>
+        <v>2015.847867605775</v>
       </c>
       <c r="R16">
-        <v>22157.6041766972</v>
+        <v>18142.63080845198</v>
       </c>
       <c r="S16">
-        <v>0.2600837935056362</v>
+        <v>0.2286529629479477</v>
       </c>
       <c r="T16">
-        <v>0.2600837935056362</v>
+        <v>0.2286529629479477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H17">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>2.848446987222222</v>
+        <v>1.502446609886444</v>
       </c>
       <c r="R17">
-        <v>25.636022885</v>
+        <v>13.522019488978</v>
       </c>
       <c r="S17">
-        <v>0.0003009131325371459</v>
+        <v>0.0001704190452772888</v>
       </c>
       <c r="T17">
-        <v>0.000300913132537146</v>
+        <v>0.0001704190452772888</v>
       </c>
     </row>
   </sheetData>
